--- a/05_Age_gender_detection/Age_gender_classification_cam/exe/fairface_cam/fairface_cam_summary.xlsx
+++ b/05_Age_gender_detection/Age_gender_classification_cam/exe/fairface_cam/fairface_cam_summary.xlsx
@@ -891,7 +891,7 @@
         <v>224</v>
       </c>
       <c r="S7" t="n">
-        <v>1904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="8" outlineLevel="1">
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>30361</v>
+        <v>29354</v>
       </c>
     </row>
     <row r="66">
